--- a/medicine/Enfance/Ivone_Ramos/Ivone_Ramos.xlsx
+++ b/medicine/Enfance/Ivone_Ramos/Ivone_Ramos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ivone Aida Lopes Rodrigues Fernandes Ramos, née le 7 septembre 1926[1] à Santa Catarina (Cap-Vert) et morte le 3 mars 2018 à Mindelo (Cap-Vert)[2], est une autrice capverdienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ivone Aida Lopes Rodrigues Fernandes Ramos, née le 7 septembre 1926 à Santa Catarina (Cap-Vert) et morte le 3 mars 2018 à Mindelo (Cap-Vert), est une autrice capverdienne.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est née de Armando Napoleão Rodrigues Fernandes et Alice Lopes da Silva Fernandes. Elle appartient à une famille comprenant d'autres figures littéraires, y compris ses oncles et cousins José Lopes da Silva, poète, António Aurélio Gonçalves et Baltasar Lopes da Silva, sa sœur Orlanda Amarílis et son beau-frère Manuel Ferreira. Elle a également des liens familiaux avec la poète Yolanda Morazzo.
 À six ans, elle retourne à Assomada. Elle aime lire depuis son enfance. Ses genres de prédilection sont les oeuvres politiques, les histoires d'amour et d'espionnage, les livres médiévaux et autres. Elle grandit et est très tôt sensibilisée aux problèmes locaux et mondiaux.
-Elle déménage ensuite sur l'île de São Vicente et vit chez son oncle, l'écrivain António Aurélio Gonçalves, où elle commence à écrire des histoires, dont des histoires du folklore du Cap-Vert[3]. Ces histoires lui sont racontées par ses voisins, leurs femmes au foyer et les aînés de Santa Catarina et de São Nicolau, dans la cour et à la porte de la maison, sous le ciel étoilé. C'étaient des récits de sorciers, de personnes aux facultés extraordinaires  ou de héros qui partaient en mission pleine de dangers.
-Ce n'est que beaucoup, beaucoup plus tard, que ces histoires lui inspirent une série de livres. Son premier livre est Vidas Vividas, publié en 1990. Elle réédite le livre de son père, Léxico do dialecto crioulo do arquipélago de Cabo Verde, en 1990 à Mindelo[4],[5]. Elle réalise par la suite d'autres récits dont Futcera ta cendê na Rotcha publié en 2000, et Exilada publié en 2005. Plus tard en 2009, elle sort un livre de contes pour enfants intitulé Mam Bia Tita conta estória na criol.
+Elle déménage ensuite sur l'île de São Vicente et vit chez son oncle, l'écrivain António Aurélio Gonçalves, où elle commence à écrire des histoires, dont des histoires du folklore du Cap-Vert. Ces histoires lui sont racontées par ses voisins, leurs femmes au foyer et les aînés de Santa Catarina et de São Nicolau, dans la cour et à la porte de la maison, sous le ciel étoilé. C'étaient des récits de sorciers, de personnes aux facultés extraordinaires  ou de héros qui partaient en mission pleine de dangers.
+Ce n'est que beaucoup, beaucoup plus tard, que ces histoires lui inspirent une série de livres. Son premier livre est Vidas Vividas, publié en 1990. Elle réédite le livre de son père, Léxico do dialecto crioulo do arquipélago de Cabo Verde, en 1990 à Mindelo,. Elle réalise par la suite d'autres récits dont Futcera ta cendê na Rotcha publié en 2000, et Exilada publié en 2005. Plus tard en 2009, elle sort un livre de contes pour enfants intitulé Mam Bia Tita conta estória na criol.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vidas Vividas, 1990
 Futcera ta cendê na Rotcha, 2000
